--- a/ClanCompetitionStatistics/2025/5月/联赛参与名单.xlsx
+++ b/ClanCompetitionStatistics/2025/5月/联赛参与名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22635" windowHeight="13410"/>
+    <workbookView windowWidth="22875" windowHeight="13995"/>
   </bookViews>
   <sheets>
     <sheet name="成员信息" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,12 @@
     <t>名称</t>
   </si>
   <si>
+    <t>大本</t>
+  </si>
+  <si>
     <t>繁荣度</t>
   </si>
   <si>
-    <t>大本</t>
-  </si>
-  <si>
     <t>馬工</t>
   </si>
   <si>
@@ -56,79 +56,79 @@
     <t>天赋</t>
   </si>
   <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>顶尖、珍惜</t>
+  </si>
+  <si>
+    <t>墨苏</t>
+  </si>
+  <si>
+    <t>不悔谷</t>
+  </si>
+  <si>
+    <t>我就睡觉</t>
+  </si>
+  <si>
+    <t>缍飒</t>
+  </si>
+  <si>
     <t>三玖天下第一</t>
   </si>
   <si>
-    <t>顶尖、珍惜</t>
-  </si>
-  <si>
-    <t>Today</t>
-  </si>
-  <si>
-    <t>不悔谷</t>
-  </si>
-  <si>
-    <t>我就睡觉</t>
-  </si>
-  <si>
-    <t>缍飒</t>
+    <t>其实很简单</t>
   </si>
   <si>
     <t>神龙架</t>
   </si>
   <si>
-    <t>其实很简单</t>
+    <t>沐、澈</t>
   </si>
   <si>
     <t>橘柚</t>
   </si>
   <si>
-    <t>沐、澈</t>
+    <t>关山</t>
+  </si>
+  <si>
+    <t>玄天无名</t>
+  </si>
+  <si>
+    <t>wiusyx</t>
+  </si>
+  <si>
+    <t>大本打小本</t>
+  </si>
+  <si>
+    <t>闪耀、天使</t>
   </si>
   <si>
     <t>糕潮</t>
   </si>
   <si>
-    <t>关山</t>
+    <t>Sg・GROUP 吴彦祖</t>
+  </si>
+  <si>
+    <t>落、幕</t>
+  </si>
+  <si>
+    <t>顺其自然</t>
+  </si>
+  <si>
+    <t>心累❤♀</t>
+  </si>
+  <si>
+    <t>剑中之贼。</t>
+  </si>
+  <si>
+    <t>巨大的反差</t>
+  </si>
+  <si>
+    <t>石村</t>
   </si>
   <si>
     <t>挽风出征寸草不生</t>
-  </si>
-  <si>
-    <t>wiusyx</t>
-  </si>
-  <si>
-    <t>墨苏</t>
-  </si>
-  <si>
-    <t>闪耀、天使</t>
-  </si>
-  <si>
-    <t>玄天无名</t>
-  </si>
-  <si>
-    <t>Sg・GROUP 吴彦祖</t>
-  </si>
-  <si>
-    <t>大本打小本</t>
-  </si>
-  <si>
-    <t>顺其自然</t>
-  </si>
-  <si>
-    <t>落、幕</t>
-  </si>
-  <si>
-    <t>剑中之贼。</t>
-  </si>
-  <si>
-    <t>心累❤♀</t>
-  </si>
-  <si>
-    <t>石村</t>
-  </si>
-  <si>
-    <t>巨大的反差</t>
   </si>
   <si>
     <t>剑神重生</t>
@@ -198,7 +198,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,13 +217,6 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -710,148 +703,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1219,7 +1212,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1333,7 +1326,7 @@
         <v>16</v>
       </c>
       <c r="J5" s="5">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1356,10 +1349,10 @@
         <v>11</v>
       </c>
       <c r="I6" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="5">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1408,10 +1401,10 @@
         <v>15</v>
       </c>
       <c r="I8" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" s="5">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1437,7 +1430,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="5">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1463,7 +1456,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="5">
-        <v>57</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1486,10 +1479,10 @@
         <v>21</v>
       </c>
       <c r="I11" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J11" s="5">
-        <v>41</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1512,10 +1505,10 @@
         <v>23</v>
       </c>
       <c r="I12" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J12" s="5">
-        <v>83</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1538,10 +1531,10 @@
         <v>25</v>
       </c>
       <c r="I13" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J13" s="5">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1567,7 +1560,7 @@
         <v>14</v>
       </c>
       <c r="J14" s="5">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1590,10 +1583,10 @@
         <v>29</v>
       </c>
       <c r="I15" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" s="5">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1619,7 +1612,7 @@
         <v>13</v>
       </c>
       <c r="J16" s="5">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1642,10 +1635,10 @@
         <v>33</v>
       </c>
       <c r="I17" s="5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J17" s="5">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1915,8 +1908,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A40:D69">
-    <sortCondition ref="D40" descending="1"/>
+  <sortState ref="G22:J35">
+    <sortCondition ref="J22" descending="1"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:D2"/>
